--- a/BaseLimpo/2016_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2016_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Animais                                               </t>
+          <t>Animais</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversos                                              </t>
+          <t>Diversos</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -600,7 +600,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversos-Emae                                         </t>
+          <t>Diversos-Emae</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Domiciliar                                            </t>
+          <t>Domiciliar</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -692,7 +692,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Apreendido                                    </t>
+          <t>Entulho Apreendido</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -738,7 +738,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Manual                                        </t>
+          <t>Entulho Manual</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -784,7 +784,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Mecanizado                                    </t>
+          <t>Entulho Mecanizado</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -830,7 +830,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equipe De Eventos Especiais E Operacoes De Emergencia </t>
+          <t>Equipe De Eventos Especiais E Operacoes De Emergencia</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -876,7 +876,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esgoto                                                </t>
+          <t>Esgoto</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -922,7 +922,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feira Livre                                           </t>
+          <t>Feira Livre</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -968,7 +968,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gg Saude                                              </t>
+          <t>Gg Saude</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1014,7 +1014,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Limpeza Urbana                                        </t>
+          <t>Limpeza Urbana</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1060,7 +1060,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pg Saude                                              </t>
+          <t>Pg Saude</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1106,7 +1106,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poda                                                  </t>
+          <t>Poda</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1152,7 +1152,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rejeito-Cmt Carolina Maria De Jesus                   </t>
+          <t>Rejeito-Cmt Carolina Maria De Jesus</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1198,7 +1198,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Boca De Lobo                              </t>
+          <t>Residuos De Boca De Lobo</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1244,7 +1244,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Corregos                                  </t>
+          <t>Residuos De Corregos</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1290,7 +1290,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Ecoponto                                  </t>
+          <t>Residuos De Ecoponto</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1336,7 +1336,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Piscinao                                  </t>
+          <t>Residuos De Piscinao</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1382,7 +1382,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seletiva                                              </t>
+          <t>Seletiva</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1428,7 +1428,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao                                              </t>
+          <t>Varricao</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1474,7 +1474,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao Mecanizada                                   </t>
+          <t>Varricao Mecanizada</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1515,98 +1515,6 @@
       </c>
       <c r="N23" t="n">
         <v>17.28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(Vazio)                                               </t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total Geral                                                 </t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>463884.8</v>
-      </c>
-      <c r="C25" t="n">
-        <v>471502.18</v>
-      </c>
-      <c r="D25" t="n">
-        <v>494948.04</v>
-      </c>
-      <c r="E25" t="n">
-        <v>462757.39</v>
-      </c>
-      <c r="F25" t="n">
-        <v>449509.7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>451108.13</v>
-      </c>
-      <c r="H25" t="n">
-        <v>432143.07</v>
-      </c>
-      <c r="I25" t="n">
-        <v>461709.39</v>
-      </c>
-      <c r="J25" t="n">
-        <v>440561.52</v>
-      </c>
-      <c r="K25" t="n">
-        <v>437893.52</v>
-      </c>
-      <c r="L25" t="n">
-        <v>396496.69</v>
-      </c>
-      <c r="M25" t="n">
-        <v>490428.44</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5452942.870000001</v>
       </c>
     </row>
   </sheetData>
